--- a/ask4/Book1 2.xlsx
+++ b/ask4/Book1 2.xlsx
@@ -454,88 +454,92 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,9 +566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -578,7 +582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2160000" y="2557440"/>
-          <a:ext cx="4596480" cy="2701080"/>
+          <a:ext cx="4593960" cy="2700720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -599,9 +603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>174240</xdr:colOff>
+      <xdr:colOff>173880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -615,7 +619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2133000" y="7692840"/>
-          <a:ext cx="4596480" cy="2703960"/>
+          <a:ext cx="4593960" cy="2703600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,9 +640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>192240</xdr:colOff>
+      <xdr:colOff>191880</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -652,7 +656,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2151000" y="12681360"/>
-          <a:ext cx="4596480" cy="2698200"/>
+          <a:ext cx="4593960" cy="2697840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1263240</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2151360" y="18103320"/>
+          <a:ext cx="5664960" cy="1019520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -846,1292 +887,1292 @@
   </sheetPr>
   <dimension ref="C2:M101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="18.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.86"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="4"/>
-      <c r="M3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="M4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="4"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <f aca="false">E6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="12" t="n">
         <f aca="false">F6</f>
         <v>8</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="4"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" s="10" t="n">
+      <c r="F7" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <f aca="false">J6</f>
         <v>8</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="12" t="n">
         <f aca="false">I7+F7</f>
         <v>12</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="4"/>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="10" t="n">
+      <c r="E8" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <f aca="false">J7</f>
         <v>12</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="12" t="n">
         <f aca="false">I8+F8</f>
         <v>16</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="4"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <f aca="false">J8</f>
         <v>16</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J9" s="12" t="n">
         <f aca="false">I9+F9</f>
         <v>21</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="4"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="G10" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="11" t="n">
+      <c r="G10" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <f aca="false">J9</f>
         <v>21</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="12" t="n">
         <f aca="false">I10+F10</f>
         <v>28</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="4"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="4"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11" t="s">
+      <c r="C12" s="5"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="4"/>
-      <c r="M13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="4"/>
-      <c r="K14" s="11" t="s">
+      <c r="C14" s="5"/>
+      <c r="K14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="4"/>
-      <c r="K15" s="11" t="s">
+      <c r="C15" s="5"/>
+      <c r="K15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="4"/>
-      <c r="K16" s="11" t="s">
+      <c r="C16" s="5"/>
+      <c r="K16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="4"/>
-      <c r="K17" s="11" t="s">
+      <c r="C17" s="5"/>
+      <c r="K17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="4"/>
-      <c r="K18" s="11" t="s">
+      <c r="C18" s="5"/>
+      <c r="K18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4"/>
-      <c r="K19" s="11" t="s">
+      <c r="C19" s="5"/>
+      <c r="K19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="4"/>
-      <c r="K20" s="0" t="s">
+      <c r="C20" s="5"/>
+      <c r="K20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="4"/>
-      <c r="M21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="4"/>
-      <c r="M22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="4"/>
-      <c r="M23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="4"/>
-      <c r="M24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="4"/>
-      <c r="M25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="M25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="4"/>
-      <c r="M26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="M26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="4"/>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="M29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="M29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="4"/>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="G30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="4"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9" t="n">
+      <c r="E31" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G31" s="10" t="n">
+      <c r="G31" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="20" t="n">
+      <c r="I31" s="21" t="n">
         <f aca="false">E31</f>
         <v>0</v>
       </c>
-      <c r="J31" s="20" t="n">
+      <c r="J31" s="21" t="n">
         <f aca="false">F31</f>
         <v>8</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="M31" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="4"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="13" t="n">
+      <c r="E32" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F32" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G32" s="10" t="n">
+      <c r="F32" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="I32" s="20" t="n">
+      <c r="I32" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="J32" s="20" t="n">
+      <c r="J32" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="4"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G33" s="10" t="n">
+      <c r="E33" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="20" t="n">
+      <c r="I33" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="J33" s="20" t="n">
+      <c r="J33" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="K33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="12" t="s">
+      <c r="M33" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="4"/>
-      <c r="D34" s="13" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G34" s="10" t="n">
+      <c r="G34" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I34" s="20" t="n">
+      <c r="I34" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="J34" s="20" t="n">
+      <c r="J34" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="K34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="L34" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M34" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="4"/>
-      <c r="D35" s="14" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="14" t="n">
+      <c r="E35" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F35" s="14" t="n">
+      <c r="F35" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="G35" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" s="20" t="n">
+      <c r="G35" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="J35" s="20" t="n">
+      <c r="J35" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="M35" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="4"/>
-      <c r="M36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="4"/>
-      <c r="K37" s="0" t="s">
+      <c r="C37" s="5"/>
+      <c r="K37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="L37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="4"/>
-      <c r="M38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="4"/>
-      <c r="K39" s="11" t="s">
+      <c r="C39" s="5"/>
+      <c r="K39" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="5"/>
+      <c r="M39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="4"/>
-      <c r="K40" s="11" t="s">
+      <c r="C40" s="5"/>
+      <c r="K40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="4"/>
-      <c r="K41" s="11" t="s">
+      <c r="C41" s="5"/>
+      <c r="K41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="5"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="4"/>
-      <c r="K42" s="11" t="s">
+      <c r="C42" s="5"/>
+      <c r="K42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="4"/>
-      <c r="K43" s="11" t="s">
+      <c r="C43" s="5"/>
+      <c r="K43" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="4"/>
-      <c r="K44" s="11" t="s">
+      <c r="C44" s="5"/>
+      <c r="K44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="4"/>
-      <c r="K45" s="0" t="s">
+      <c r="C45" s="5"/>
+      <c r="K45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M45" s="5"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="4"/>
-      <c r="M46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="4"/>
-      <c r="M47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="4"/>
-      <c r="M48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="M48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="4"/>
-      <c r="M49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="M49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="4"/>
-      <c r="M50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="M50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="18"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="4"/>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="M53" s="5"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="M53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="4"/>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="7" t="s">
+      <c r="G54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="19" t="s">
+      <c r="M54" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="4"/>
-      <c r="D55" s="9" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="9" t="n">
+      <c r="E55" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="9" t="n">
+      <c r="F55" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G55" s="10" t="n">
+      <c r="G55" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I55" s="20" t="n">
+      <c r="I55" s="21" t="n">
         <f aca="false">E55</f>
         <v>0</v>
       </c>
-      <c r="J55" s="20" t="n">
+      <c r="J55" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="M55" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="4"/>
-      <c r="D56" s="13" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="13" t="n">
+      <c r="E56" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F56" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G56" s="10" t="n">
+      <c r="F56" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="I56" s="20" t="n">
+      <c r="I56" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="J56" s="20" t="n">
+      <c r="J56" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="M56" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="4"/>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G57" s="10" t="n">
+      <c r="E57" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G57" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="I57" s="20" t="n">
+      <c r="I57" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="J57" s="20" t="n">
+      <c r="J57" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M57" s="12" t="s">
+      <c r="M57" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="4"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="13" t="n">
+      <c r="E58" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="13" t="n">
+      <c r="F58" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G58" s="10" t="n">
+      <c r="G58" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I58" s="20" t="n">
+      <c r="I58" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="J58" s="20" t="n">
+      <c r="J58" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="4"/>
-      <c r="D59" s="14" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="14" t="n">
+      <c r="E59" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F59" s="14" t="n">
+      <c r="F59" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="G59" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I59" s="20" t="n">
+      <c r="G59" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="J59" s="20" t="n">
+      <c r="J59" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="M59" s="12" t="s">
+      <c r="M59" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="4"/>
-      <c r="M60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="M60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="4"/>
-      <c r="I61" s="9" t="n">
+      <c r="C61" s="5"/>
+      <c r="I61" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="K61" s="0" t="s">
+      <c r="K61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L61" s="0" t="s">
+      <c r="L61" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="4"/>
-      <c r="I62" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="I62" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="4"/>
-      <c r="I63" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K63" s="11" t="s">
+      <c r="C63" s="5"/>
+      <c r="I63" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M63" s="5"/>
+      <c r="M63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="4"/>
-      <c r="I64" s="13" t="n">
+      <c r="C64" s="5"/>
+      <c r="I64" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="K64" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M64" s="5"/>
+      <c r="M64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="4"/>
-      <c r="I65" s="14" t="n">
+      <c r="C65" s="5"/>
+      <c r="I65" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="M65" s="5"/>
+      <c r="M65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="4"/>
-      <c r="K66" s="11" t="s">
+      <c r="C66" s="5"/>
+      <c r="K66" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M66" s="5"/>
+      <c r="M66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="4"/>
-      <c r="K67" s="11" t="s">
+      <c r="C67" s="5"/>
+      <c r="K67" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M67" s="5"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="4"/>
-      <c r="K68" s="11" t="s">
+      <c r="C68" s="5"/>
+      <c r="K68" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M68" s="5"/>
+      <c r="M68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="4"/>
-      <c r="K69" s="0" t="s">
+      <c r="C69" s="5"/>
+      <c r="K69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M69" s="5"/>
+      <c r="M69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="4"/>
-      <c r="M70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="M70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="4"/>
-      <c r="M71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="M71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="4"/>
-      <c r="M72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="M72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="4"/>
-      <c r="M73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="M73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="4"/>
-      <c r="M74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="M74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="4"/>
-      <c r="M75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="M75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="18"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="3"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="4"/>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="5"/>
+      <c r="D78" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="M78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="M78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="45.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="4"/>
-      <c r="D79" s="6" t="s">
+      <c r="C79" s="5"/>
+      <c r="D79" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" s="7" t="s">
+      <c r="G79" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K79" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="7" t="s">
+      <c r="L79" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M79" s="19" t="s">
+      <c r="M79" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="4"/>
-      <c r="D80" s="9" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="9" t="n">
+      <c r="E80" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="F80" s="9" t="n">
+      <c r="F80" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G80" s="10" t="n">
+      <c r="G80" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="I80" s="20" t="n">
+      <c r="I80" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="J80" s="20" t="n">
+      <c r="J80" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="K80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L80" s="11" t="s">
+      <c r="L80" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M80" s="12" t="s">
+      <c r="M80" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="4"/>
-      <c r="D81" s="13" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="13" t="n">
+      <c r="E81" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F81" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G81" s="10" t="n">
+      <c r="F81" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G81" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="I81" s="20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" s="20" t="n">
+      <c r="I81" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M81" s="12" t="s">
+      <c r="M81" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="4"/>
-      <c r="D82" s="13" t="s">
+      <c r="C82" s="5"/>
+      <c r="D82" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="G82" s="10" t="n">
+      <c r="E82" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G82" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="I82" s="20" t="n">
+      <c r="I82" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="J82" s="20" t="n">
+      <c r="J82" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="K82" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L82" s="11" t="s">
+      <c r="L82" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M82" s="12" t="s">
+      <c r="M82" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="4"/>
-      <c r="D83" s="13" t="s">
+      <c r="C83" s="5"/>
+      <c r="D83" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="13" t="n">
+      <c r="E83" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F83" s="13" t="n">
+      <c r="F83" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="G83" s="10" t="n">
+      <c r="G83" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="I83" s="20" t="n">
+      <c r="I83" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="J83" s="20" t="n">
+      <c r="J83" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="K83" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L83" s="11" t="s">
+      <c r="L83" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M83" s="12" t="s">
+      <c r="M83" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="4"/>
-      <c r="D84" s="14" t="s">
+      <c r="C84" s="5"/>
+      <c r="D84" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="14" t="n">
+      <c r="E84" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="F84" s="14" t="n">
+      <c r="F84" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="G84" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I84" s="20" t="n">
+      <c r="G84" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I84" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="J84" s="20" t="n">
+      <c r="J84" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="K84" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M84" s="12" t="s">
+      <c r="M84" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="4"/>
-      <c r="M85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="M85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="4"/>
-      <c r="D86" s="0" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K86" s="0" t="s">
+      <c r="K86" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L86" s="0" t="s">
+      <c r="L86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="4"/>
-      <c r="M87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="M87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="4"/>
-      <c r="K88" s="11" t="s">
+      <c r="C88" s="5"/>
+      <c r="K88" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M88" s="5"/>
+      <c r="M88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="4"/>
-      <c r="K89" s="11" t="s">
+      <c r="C89" s="5"/>
+      <c r="K89" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="M89" s="5"/>
+      <c r="M89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="4"/>
-      <c r="K90" s="11" t="s">
+      <c r="C90" s="5"/>
+      <c r="K90" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M90" s="5"/>
+      <c r="M90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="4"/>
-      <c r="K91" s="11" t="s">
+      <c r="C91" s="5"/>
+      <c r="K91" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M91" s="5"/>
+      <c r="M91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="4"/>
-      <c r="K92" s="11" t="s">
+      <c r="C92" s="5"/>
+      <c r="K92" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="M92" s="5"/>
+      <c r="M92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="4"/>
-      <c r="K93" s="11" t="s">
+      <c r="C93" s="5"/>
+      <c r="K93" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M93" s="5"/>
+      <c r="M93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="4"/>
-      <c r="K94" s="0" t="s">
+      <c r="C94" s="5"/>
+      <c r="K94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M94" s="5"/>
+      <c r="M94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="4"/>
-      <c r="M95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="M95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C96" s="4"/>
-      <c r="M96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="M96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="4"/>
-      <c r="M97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="M97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="4"/>
-      <c r="M98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="M98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="4"/>
-      <c r="M99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="M99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="4"/>
-      <c r="M100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="M100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="16"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="18"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/ask4/Book1 2.xlsx
+++ b/ask4/Book1 2.xlsx
@@ -566,9 +566,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -582,7 +582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2160000" y="2557440"/>
-          <a:ext cx="4593960" cy="2700720"/>
+          <a:ext cx="4591800" cy="2700360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -603,9 +603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>173880</xdr:colOff>
+      <xdr:colOff>173520</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -619,7 +619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2133000" y="7692840"/>
-          <a:ext cx="4593960" cy="2703600"/>
+          <a:ext cx="4591800" cy="2703240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,9 +640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>191880</xdr:colOff>
+      <xdr:colOff>191520</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -656,7 +656,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2151000" y="12681360"/>
-          <a:ext cx="4593960" cy="2697840"/>
+          <a:ext cx="4591800" cy="2697480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -677,9 +677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1263240</xdr:colOff>
+      <xdr:colOff>1262880</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -693,7 +693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2151360" y="18103320"/>
-          <a:ext cx="5664960" cy="1019520"/>
+          <a:ext cx="5662800" cy="1019160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,7 +887,7 @@
   </sheetPr>
   <dimension ref="C2:M101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E98" activeCellId="0" sqref="E98"/>
     </sheetView>
   </sheetViews>
